--- a/biology/Médecine/Examen_cytobactériologique_des_urines/Examen_cytobactériologique_des_urines.xlsx
+++ b/biology/Médecine/Examen_cytobactériologique_des_urines/Examen_cytobactériologique_des_urines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Examen_cytobact%C3%A9riologique_des_urines</t>
+          <t>Examen_cytobactériologique_des_urines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen cytobactériologique des urines (ECBU, en France), ou examen microscopique des urines (EMU, en Belgique), ou sédiment urinaire (en Suisse) est un examen de biologie médicale, étudiant l'urine d'un patient. Il est fréquemment utilisé pour diagnostiquer une infection urinaire. Il détermine notamment la numération des hématies et des leucocytes, la présence ou non de germes (leur type et leur profil de résistance aux antibiotiques) et la présence de cristaux.
 Ce prélèvement nécessite quelques jours d'analyse (notamment pour la culture) avant de donner tous ces résultats et nécessite d'être analysé dans un laboratoire d'analyse médicales. On fait souvent une bandelette urinaire au préalable d'un ECBU, dont le résultat peut être lu au bout d'une minute après les changements de couleur des réactifs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Examen_cytobact%C3%A9riologique_des_urines</t>
+          <t>Examen_cytobactériologique_des_urines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après « toilette intime » et désinfection soigneuse des muqueuses à l'aide d'un antiseptique (Dakin), on demande au patient d'uriner dans un pot stérile. Dans la mesure du possible, on ne recueille que le second jet, le premier pouvant être contaminé par les germes situés à la partie terminale de l'urètre. De plus, il faut veiller à prélever les urines du matin, de sorte que s'il y a infection, les bactéries soient en nombre assez important pour être détectées.
 En fait, le prélèvement dit "à mi-jet" ou au milieu du jet est la condition essentielle pour éviter les souillures du prélèvement d'urine par les germes naturellement présents au niveau du méat urétral. Cette souillure peut rendre les conclusions de l'examen aléatoires voire impossibles.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Examen_cytobact%C3%A9riologique_des_urines</t>
+          <t>Examen_cytobactériologique_des_urines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>numération des hématies et des leucocytes en nombre par mm3 ;
 présence ou non de cristaux ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Examen_cytobact%C3%A9riologique_des_urines</t>
+          <t>Examen_cytobactériologique_des_urines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un examen cytobactériologique des urines normal ne doit pas comporter plus de quelques hématies ou leucocytes et doit être stérile.
 La présence de quelques hématies est habituelle chez la femme en période de règles. 
